--- a/resources/CheatSheetTidyverse.xlsx
+++ b/resources/CheatSheetTidyverse.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbird\Documents\CloudStation\Teaching\Fall_2020\ComputationalBiology\classroom_repo\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E79FC58-0976-4DF9-8F9F-3DB6371D32A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149183CF-38BE-46A7-8FDC-60DCFF07DEBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="972" yWindow="-96" windowWidth="22164" windowHeight="13152" xr2:uid="{E2335258-2E79-448A-8127-05E50C6EDC11}"/>
+    <workbookView xWindow="972" yWindow="-96" windowWidth="22164" windowHeight="13152" activeTab="1" xr2:uid="{E2335258-2E79-448A-8127-05E50C6EDC11}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet2!$A$1:$D$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet2!$A$1:$D$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="137">
   <si>
     <t>I want to …</t>
   </si>
@@ -1014,6 +1014,12 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>https://stringr.tidyverse.org/articles/regular-expressions.html</t>
+  </si>
+  <si>
+    <t>- Build a regular expression to detect a pattern</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1380,6 +1386,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1409,12 +1424,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1732,7 +1741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A42C66E-9A5B-470D-8B31-147D073E21D6}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -1746,12 +1755,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="40" t="s">
@@ -1769,7 +1778,7 @@
       <c r="A3" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="45" t="s">
         <v>121</v>
       </c>
       <c r="C3" s="39" t="s">
@@ -1780,7 +1789,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="54" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="17" t="s">
@@ -1794,7 +1803,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="52"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="24"/>
       <c r="C5" s="24" t="s">
         <v>5</v>
@@ -1804,7 +1813,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="53"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25" t="s">
         <v>6</v>
@@ -1814,7 +1823,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="54" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="17" t="s">
@@ -1828,7 +1837,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="52"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="23" t="s">
         <v>58</v>
       </c>
@@ -1840,7 +1849,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="53"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="19" t="s">
         <v>59</v>
       </c>
@@ -1852,7 +1861,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="17" t="s">
@@ -1866,7 +1875,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="46"/>
+      <c r="A11" s="49"/>
       <c r="B11" s="19" t="s">
         <v>61</v>
       </c>
@@ -1878,7 +1887,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="47" t="s">
         <v>115</v>
       </c>
       <c r="B12" s="17" t="s">
@@ -1892,7 +1901,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="45"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="18" t="s">
         <v>63</v>
       </c>
@@ -1904,7 +1913,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="45"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="20" t="s">
         <v>64</v>
       </c>
@@ -1916,7 +1925,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="45"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="20" t="s">
         <v>65</v>
       </c>
@@ -1928,8 +1937,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="45"/>
-      <c r="B16" s="55" t="s">
+      <c r="A16" s="48"/>
+      <c r="B16" s="46" t="s">
         <v>131</v>
       </c>
       <c r="C16" s="43" t="s">
@@ -1940,7 +1949,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="45"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="18" t="s">
         <v>66</v>
       </c>
@@ -1952,7 +1961,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="45"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="18" t="s">
         <v>127</v>
       </c>
@@ -1964,7 +1973,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="45"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="18" t="s">
         <v>128</v>
       </c>
@@ -1976,7 +1985,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="45"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="18" t="s">
         <v>67</v>
       </c>
@@ -1988,8 +1997,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="45"/>
-      <c r="B21" s="47" t="s">
+      <c r="A21" s="48"/>
+      <c r="B21" s="50" t="s">
         <v>129</v>
       </c>
       <c r="C21" s="24" t="s">
@@ -2000,8 +2009,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="45"/>
-      <c r="B22" s="48"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="24" t="s">
         <v>5</v>
       </c>
@@ -2010,8 +2019,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="46"/>
-      <c r="B23" s="49"/>
+      <c r="A23" s="49"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="25" t="s">
         <v>5</v>
       </c>
@@ -2020,7 +2029,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="47" t="s">
         <v>116</v>
       </c>
       <c r="B24" s="17" t="s">
@@ -2034,7 +2043,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="45"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="18" t="s">
         <v>75</v>
       </c>
@@ -2046,7 +2055,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="45"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="18" t="s">
         <v>69</v>
       </c>
@@ -2058,7 +2067,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="45"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="23" t="s">
         <v>70</v>
       </c>
@@ -2070,7 +2079,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="46"/>
+      <c r="A28" s="49"/>
       <c r="B28" s="16" t="s">
         <v>71</v>
       </c>
@@ -2082,7 +2091,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="47" t="s">
         <v>117</v>
       </c>
       <c r="B29" s="17" t="s">
@@ -2096,7 +2105,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="45"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="18" t="s">
         <v>73</v>
       </c>
@@ -2108,7 +2117,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="43.2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="45"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="23" t="s">
         <v>74</v>
       </c>
@@ -2150,9 +2159,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7776FFA-B469-40CE-A8B0-D318E2316F7A}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2166,12 +2175,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="53" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
@@ -2186,7 +2195,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="47" t="s">
         <v>118</v>
       </c>
       <c r="B3" s="29" t="s">
@@ -2200,7 +2209,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="45"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="14" t="s">
         <v>49</v>
       </c>
@@ -2212,7 +2221,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="45"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="14" t="s">
         <v>79</v>
       </c>
@@ -2224,7 +2233,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="45"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="14" t="s">
         <v>80</v>
       </c>
@@ -2236,7 +2245,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="45"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="26" t="s">
         <v>78</v>
       </c>
@@ -2248,7 +2257,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="45"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="14" t="s">
         <v>50</v>
       </c>
@@ -2260,7 +2269,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="45"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3" t="s">
         <v>5</v>
@@ -2270,7 +2279,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="45"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="14" t="s">
         <v>51</v>
       </c>
@@ -2282,7 +2291,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="45"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
         <v>5</v>
@@ -2292,7 +2301,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="45"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
         <v>5</v>
@@ -2302,272 +2311,276 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B14" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C14" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D14" s="31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="45"/>
-      <c r="B14" s="26" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="48"/>
+      <c r="B15" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="27" t="s">
+      <c r="C15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="10"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
-    </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B17" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="28" t="s">
+      <c r="C17" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="28" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="21"/>
-      <c r="B17" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="21"/>
-      <c r="B18" s="24"/>
+      <c r="B18" s="23" t="s">
+        <v>55</v>
+      </c>
       <c r="C18" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="21"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="28" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="22"/>
-      <c r="B19" s="16" t="s">
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="22"/>
+      <c r="B20" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="33" t="s">
+      <c r="C20" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="33" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="10" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="10"/>
-      <c r="B21" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="10"/>
       <c r="B22" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10"/>
       <c r="B23" s="3" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10"/>
       <c r="B24" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10"/>
       <c r="B25" s="3" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10"/>
       <c r="B26" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10"/>
       <c r="B27" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="10"/>
       <c r="B28" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="10"/>
       <c r="B29" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="10"/>
       <c r="B30" s="3" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="10"/>
       <c r="B31" s="3" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="10"/>
       <c r="B32" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="10"/>
       <c r="B33" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="10"/>
       <c r="B34" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>110</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="10"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="10"/>
@@ -2629,17 +2642,17 @@
       <c r="C45" s="3"/>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="13"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="10"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="1:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A47" s="11"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="13"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3"/>
@@ -2659,11 +2672,17 @@
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="94" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
